--- a/PELM Contact Members .xlsx
+++ b/PELM Contact Members .xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMORAIS\Desktop\PELM\Power-Electronics-Lab-Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC8FBA-6453-034C-A36C-13554C13FD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28220" yWindow="-2240" windowWidth="26840" windowHeight="18120" xr2:uid="{370A009D-EBAA-1A45-B254-B064429020AC}"/>
+    <workbookView xWindow="-28215" yWindow="-2235" windowWidth="26835" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -58,12 +57,18 @@
   </si>
   <si>
     <t xml:space="preserve">Portugal </t>
+  </si>
+  <si>
+    <t>Vítor Morais</t>
+  </si>
+  <si>
+    <t>v.morais@fe.up.pt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -157,12 +162,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,9 +174,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,218 +494,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6327C2A8-442D-3E47-BAD1-B687EAE5381E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.1640625" customWidth="1"/>
-    <col min="3" max="5" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="5" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>918973980</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>934086215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -711,7 +724,8 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{AEBDA8EC-8BE7-644C-9BBB-7119D49D2B62}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PELM Contact Members .xlsx
+++ b/PELM Contact Members .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMORAIS\Desktop\PELM\Power-Electronics-Lab-Meetings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostinho\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28215" yWindow="-2235" windowWidth="26835" windowHeight="18120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>v.morais@fe.up.pt</t>
+  </si>
+  <si>
+    <t>Agostinho Rocha</t>
+  </si>
+  <si>
+    <t>agostinho@fe.up.pt</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,6 +184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +507,7 @@
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,10 +567,18 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>910563658</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -726,6 +743,7 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
